--- a/DataGenerator/XLSXS/CharItemData.xlsx
+++ b/DataGenerator/XLSXS/CharItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\SubProject\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2891F705-6146-4A11-A35D-FF9E13ADF6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98EE6A7-C1A5-44D1-94A8-6E410C97B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94DA8A20-454E-44BE-9DDD-4200F7284095}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{94DA8A20-454E-44BE-9DDD-4200F7284095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,9 +60,6 @@
     <t>아이템효과(Execution)</t>
   </si>
   <si>
-    <t>사용가능스킬</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -89,84 +84,89 @@
     <t>itemEffectExecutionList</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>eItemType</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>long[]</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 50 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란색 가운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 +30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP 100 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueGown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taegeukFan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bluePotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능스킬그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>skillIndex</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>eItemType</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>long[]</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 50 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 +50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란색 가운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태극 부채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 +30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP 100 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueGown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taegeukFan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bluePotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF67E1E-A98A-45CF-9C54-A7166C1FB6C4}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -605,65 +605,65 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -671,25 +671,25 @@
         <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -700,25 +700,25 @@
         <v>2002</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>1003</v>
@@ -729,25 +729,25 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -758,25 +758,25 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>0</v>
